--- a/Cleaned_Cagayan/Daily_Data.xlsx
+++ b/Cleaned_Cagayan/Daily_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Water_Level</t>
   </si>
@@ -25,187 +25,97 @@
     <t>Timestamp</t>
   </si>
   <si>
-    <t>2021/8/1</t>
-  </si>
-  <si>
-    <t>2021/8/2</t>
-  </si>
-  <si>
-    <t>2021/8/3</t>
-  </si>
-  <si>
-    <t>2021/8/4</t>
-  </si>
-  <si>
-    <t>2021/8/5</t>
-  </si>
-  <si>
-    <t>2021/8/6</t>
-  </si>
-  <si>
-    <t>2021/8/7</t>
-  </si>
-  <si>
-    <t>2021/8/8</t>
-  </si>
-  <si>
-    <t>2021/8/9</t>
-  </si>
-  <si>
-    <t>2021/8/10</t>
-  </si>
-  <si>
-    <t>2021/8/11</t>
-  </si>
-  <si>
-    <t>2021/8/12</t>
-  </si>
-  <si>
-    <t>2021/8/13</t>
-  </si>
-  <si>
-    <t>2021/8/14</t>
-  </si>
-  <si>
-    <t>2021/8/15</t>
-  </si>
-  <si>
-    <t>2021/8/16</t>
-  </si>
-  <si>
-    <t>2021/8/17</t>
-  </si>
-  <si>
-    <t>2021/8/18</t>
-  </si>
-  <si>
-    <t>2021/8/19</t>
-  </si>
-  <si>
-    <t>2021/8/20</t>
-  </si>
-  <si>
-    <t>2021/8/21</t>
-  </si>
-  <si>
-    <t>2021/8/22</t>
-  </si>
-  <si>
-    <t>2021/8/23</t>
-  </si>
-  <si>
-    <t>2021/8/24</t>
-  </si>
-  <si>
-    <t>2021/8/25</t>
-  </si>
-  <si>
-    <t>2021/8/26</t>
-  </si>
-  <si>
-    <t>2021/8/27</t>
-  </si>
-  <si>
-    <t>2021/8/28</t>
-  </si>
-  <si>
-    <t>2021/8/29</t>
-  </si>
-  <si>
-    <t>2021/8/30</t>
-  </si>
-  <si>
-    <t>2021/8/31</t>
-  </si>
-  <si>
-    <t>2021/9/1</t>
-  </si>
-  <si>
-    <t>2021/9/2</t>
-  </si>
-  <si>
-    <t>2021/9/3</t>
-  </si>
-  <si>
-    <t>2021/9/4</t>
-  </si>
-  <si>
-    <t>2021/9/5</t>
-  </si>
-  <si>
-    <t>2021/9/6</t>
-  </si>
-  <si>
-    <t>2021/9/7</t>
-  </si>
-  <si>
-    <t>2021/9/8</t>
-  </si>
-  <si>
-    <t>2021/9/9</t>
-  </si>
-  <si>
-    <t>2021/9/10</t>
-  </si>
-  <si>
-    <t>2021/9/11</t>
-  </si>
-  <si>
-    <t>2021/9/12</t>
-  </si>
-  <si>
-    <t>2021/9/13</t>
-  </si>
-  <si>
-    <t>2021/9/14</t>
-  </si>
-  <si>
-    <t>2021/9/15</t>
-  </si>
-  <si>
-    <t>2021/9/16</t>
-  </si>
-  <si>
-    <t>2021/9/17</t>
-  </si>
-  <si>
-    <t>2021/9/18</t>
-  </si>
-  <si>
-    <t>2021/9/19</t>
-  </si>
-  <si>
-    <t>2021/9/20</t>
-  </si>
-  <si>
-    <t>2021/9/21</t>
-  </si>
-  <si>
-    <t>2021/9/22</t>
-  </si>
-  <si>
-    <t>2021/9/23</t>
-  </si>
-  <si>
-    <t>2021/9/24</t>
-  </si>
-  <si>
-    <t>2021/9/25</t>
-  </si>
-  <si>
-    <t>2021/9/26</t>
-  </si>
-  <si>
-    <t>2021/9/27</t>
-  </si>
-  <si>
-    <t>2021/9/28</t>
-  </si>
-  <si>
-    <t>2021/9/29</t>
-  </si>
-  <si>
-    <t>2021/9/30</t>
+    <t>2021/10/1</t>
+  </si>
+  <si>
+    <t>2021/10/2</t>
+  </si>
+  <si>
+    <t>2021/10/3</t>
+  </si>
+  <si>
+    <t>2021/10/4</t>
+  </si>
+  <si>
+    <t>2021/10/5</t>
+  </si>
+  <si>
+    <t>2021/10/6</t>
+  </si>
+  <si>
+    <t>2021/10/7</t>
+  </si>
+  <si>
+    <t>2021/10/8</t>
+  </si>
+  <si>
+    <t>2021/10/9</t>
+  </si>
+  <si>
+    <t>2021/10/10</t>
+  </si>
+  <si>
+    <t>2021/10/11</t>
+  </si>
+  <si>
+    <t>2021/10/12</t>
+  </si>
+  <si>
+    <t>2021/10/13</t>
+  </si>
+  <si>
+    <t>2021/10/14</t>
+  </si>
+  <si>
+    <t>2021/10/15</t>
+  </si>
+  <si>
+    <t>2021/10/16</t>
+  </si>
+  <si>
+    <t>2021/10/17</t>
+  </si>
+  <si>
+    <t>2021/10/18</t>
+  </si>
+  <si>
+    <t>2021/10/19</t>
+  </si>
+  <si>
+    <t>2021/10/20</t>
+  </si>
+  <si>
+    <t>2021/10/21</t>
+  </si>
+  <si>
+    <t>2021/10/22</t>
+  </si>
+  <si>
+    <t>2021/10/23</t>
+  </si>
+  <si>
+    <t>2021/10/24</t>
+  </si>
+  <si>
+    <t>2021/10/25</t>
+  </si>
+  <si>
+    <t>2021/10/26</t>
+  </si>
+  <si>
+    <t>2021/10/27</t>
+  </si>
+  <si>
+    <t>2021/10/28</t>
+  </si>
+  <si>
+    <t>2021/10/29</t>
+  </si>
+  <si>
+    <t>2021/10/30</t>
+  </si>
+  <si>
+    <t>2021/10/31</t>
   </si>
 </sst>
 </file>
@@ -563,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,6 +495,9 @@
         <v>3</v>
       </c>
       <c r="B2">
+        <v>2.800815</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
     </row>
@@ -593,7 +506,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3.01569</v>
+      </c>
+      <c r="C3">
+        <v>29.60000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -601,7 +517,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.514315</v>
+      </c>
+      <c r="C4">
+        <v>3.200000000000045</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -609,7 +528,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.25169</v>
+      </c>
+      <c r="C5">
+        <v>10.39999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -617,7 +539,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2.227815</v>
+      </c>
+      <c r="C6">
+        <v>10.39999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -625,7 +550,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2.227815</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -633,7 +561,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2.227815</v>
+      </c>
+      <c r="C8">
+        <v>0.2000000000000455</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -641,7 +572,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2.227815</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -649,7 +583,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2.227815</v>
+      </c>
+      <c r="C10">
+        <v>4.600000000000023</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -657,7 +594,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2.227815</v>
+      </c>
+      <c r="C11">
+        <v>3.399999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -665,7 +605,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2.227815</v>
+      </c>
+      <c r="C12">
+        <v>0.8000000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -673,6 +616,9 @@
         <v>14</v>
       </c>
       <c r="B13">
+        <v>2.227815</v>
+      </c>
+      <c r="C13">
         <v>0</v>
       </c>
     </row>
@@ -681,7 +627,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2.227815</v>
+      </c>
+      <c r="C14">
+        <v>1.799999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -689,6 +638,9 @@
         <v>16</v>
       </c>
       <c r="B15">
+        <v>2.227815</v>
+      </c>
+      <c r="C15">
         <v>0</v>
       </c>
     </row>
@@ -697,375 +649,186 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>2.227815</v>
+      </c>
+      <c r="C16">
+        <v>3.200000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>2.227815</v>
+      </c>
+      <c r="C17">
+        <v>0.1999999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>2.227815</v>
+      </c>
+      <c r="C18">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>2.227815</v>
+      </c>
+      <c r="C19">
+        <v>0.1999999999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>2.227815</v>
+      </c>
+      <c r="C20">
+        <v>9.800000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>2.227815</v>
+      </c>
+      <c r="C21">
+        <v>3.399999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>2.227815</v>
+      </c>
+      <c r="C22">
+        <v>0.1999999999999957</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B23">
+        <v>2.227815</v>
+      </c>
+      <c r="C23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>2.227815</v>
+      </c>
+      <c r="C24">
+        <v>7.400000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>2.227815</v>
+      </c>
+      <c r="C25">
+        <v>0.1999999999999957</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B26">
+        <v>2.227815</v>
+      </c>
+      <c r="C26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>2.227815</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>2.227815</v>
+      </c>
+      <c r="C28">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B29">
+        <v>2.227815</v>
+      </c>
+      <c r="C29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>2.227815</v>
+      </c>
+      <c r="C30">
+        <v>3.200000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>2.227815</v>
+      </c>
+      <c r="C31">
+        <v>2.799999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35">
-        <v>3.15894</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36">
-        <v>3.564815</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37">
-        <v>2.466565</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38">
-        <v>2.58594</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39">
-        <v>2.227815</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40">
-        <v>2.29944</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41">
-        <v>3.612565</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42">
-        <v>2.753065</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43">
-        <v>2.39494</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44">
-        <v>2.323315</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45">
-        <v>2.63369</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46">
-        <v>2.53819</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47">
-        <v>2.15619</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48">
-        <v>2.49044</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49">
-        <v>2.753065</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50">
-        <v>2.72919</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51">
-        <v>2.371065</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52">
-        <v>2.657565</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53">
-        <v>3.135065</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54">
-        <v>3.06344</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55">
-        <v>2.848565</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56">
-        <v>2.29944</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57">
-        <v>2.63369</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58">
-        <v>2.562065</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59">
-        <v>3.15894</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60">
-        <v>2.92019</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61">
-        <v>2.77694</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62">
-        <v>3.15894</v>
+        <v>2.227815</v>
+      </c>
+      <c r="C32">
+        <v>3.200000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Cleaned_Cagayan/Daily_Data.xlsx
+++ b/Cleaned_Cagayan/Daily_Data.xlsx
@@ -19,103 +19,103 @@
     <t>Water_Level</t>
   </si>
   <si>
-    <t>RG0_Diff</t>
+    <t>RG_Diff</t>
   </si>
   <si>
     <t>Timestamp</t>
   </si>
   <si>
-    <t>2021/10/1</t>
-  </si>
-  <si>
-    <t>2021/10/2</t>
-  </si>
-  <si>
-    <t>2021/10/3</t>
-  </si>
-  <si>
-    <t>2021/10/4</t>
-  </si>
-  <si>
-    <t>2021/10/5</t>
-  </si>
-  <si>
-    <t>2021/10/6</t>
-  </si>
-  <si>
-    <t>2021/10/7</t>
-  </si>
-  <si>
-    <t>2021/10/8</t>
-  </si>
-  <si>
-    <t>2021/10/9</t>
-  </si>
-  <si>
-    <t>2021/10/10</t>
-  </si>
-  <si>
-    <t>2021/10/11</t>
-  </si>
-  <si>
-    <t>2021/10/12</t>
-  </si>
-  <si>
-    <t>2021/10/13</t>
-  </si>
-  <si>
-    <t>2021/10/14</t>
-  </si>
-  <si>
-    <t>2021/10/15</t>
-  </si>
-  <si>
-    <t>2021/10/16</t>
-  </si>
-  <si>
-    <t>2021/10/17</t>
-  </si>
-  <si>
-    <t>2021/10/18</t>
-  </si>
-  <si>
-    <t>2021/10/19</t>
-  </si>
-  <si>
-    <t>2021/10/20</t>
-  </si>
-  <si>
-    <t>2021/10/21</t>
-  </si>
-  <si>
-    <t>2021/10/22</t>
-  </si>
-  <si>
-    <t>2021/10/23</t>
-  </si>
-  <si>
-    <t>2021/10/24</t>
-  </si>
-  <si>
-    <t>2021/10/25</t>
-  </si>
-  <si>
-    <t>2021/10/26</t>
-  </si>
-  <si>
-    <t>2021/10/27</t>
-  </si>
-  <si>
-    <t>2021/10/28</t>
-  </si>
-  <si>
-    <t>2021/10/29</t>
-  </si>
-  <si>
-    <t>2021/10/30</t>
-  </si>
-  <si>
-    <t>2021/10/31</t>
+    <t>2021/12/1</t>
+  </si>
+  <si>
+    <t>2021/12/2</t>
+  </si>
+  <si>
+    <t>2021/12/3</t>
+  </si>
+  <si>
+    <t>2021/12/4</t>
+  </si>
+  <si>
+    <t>2021/12/5</t>
+  </si>
+  <si>
+    <t>2021/12/6</t>
+  </si>
+  <si>
+    <t>2021/12/7</t>
+  </si>
+  <si>
+    <t>2021/12/8</t>
+  </si>
+  <si>
+    <t>2021/12/9</t>
+  </si>
+  <si>
+    <t>2021/12/10</t>
+  </si>
+  <si>
+    <t>2021/12/11</t>
+  </si>
+  <si>
+    <t>2021/12/12</t>
+  </si>
+  <si>
+    <t>2021/12/13</t>
+  </si>
+  <si>
+    <t>2021/12/14</t>
+  </si>
+  <si>
+    <t>2021/12/15</t>
+  </si>
+  <si>
+    <t>2021/12/16</t>
+  </si>
+  <si>
+    <t>2021/12/17</t>
+  </si>
+  <si>
+    <t>2021/12/18</t>
+  </si>
+  <si>
+    <t>2021/12/19</t>
+  </si>
+  <si>
+    <t>2021/12/20</t>
+  </si>
+  <si>
+    <t>2021/12/21</t>
+  </si>
+  <si>
+    <t>2021/12/22</t>
+  </si>
+  <si>
+    <t>2021/12/23</t>
+  </si>
+  <si>
+    <t>2021/12/24</t>
+  </si>
+  <si>
+    <t>2021/12/25</t>
+  </si>
+  <si>
+    <t>2021/12/26</t>
+  </si>
+  <si>
+    <t>2021/12/27</t>
+  </si>
+  <si>
+    <t>2021/12/28</t>
+  </si>
+  <si>
+    <t>2021/12/29</t>
+  </si>
+  <si>
+    <t>2021/12/30</t>
+  </si>
+  <si>
+    <t>2021/12/31</t>
   </si>
 </sst>
 </file>
@@ -495,10 +495,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>2.800815</v>
+        <v>1.606017</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.84248</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -506,10 +506,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3.01569</v>
+        <v>1.29442</v>
       </c>
       <c r="C3">
-        <v>29.60000000000002</v>
+        <v>5.26993</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -517,10 +517,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2.514315</v>
+        <v>1.701893</v>
       </c>
       <c r="C4">
-        <v>3.200000000000045</v>
+        <v>12.51669</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -528,10 +528,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2.25169</v>
+        <v>1.253330285714286</v>
       </c>
       <c r="C5">
-        <v>10.39999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -539,10 +539,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>2.227815</v>
+        <v>1.198544</v>
       </c>
       <c r="C6">
-        <v>10.39999999999998</v>
+        <v>0.02434</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -550,10 +550,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>2.227815</v>
+        <v>1.198544</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>0.01687</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -561,10 +561,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>2.227815</v>
+        <v>1.174575</v>
       </c>
       <c r="C8">
-        <v>0.2000000000000455</v>
+        <v>0.16428</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -572,10 +572,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>2.227815</v>
+        <v>1.126637</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -583,10 +583,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>2.227815</v>
+        <v>1.126637</v>
       </c>
       <c r="C10">
-        <v>4.600000000000023</v>
+        <v>3.33038</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -594,10 +594,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>2.227815</v>
+        <v>1.510141</v>
       </c>
       <c r="C11">
-        <v>3.399999999999999</v>
+        <v>2.90854</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -605,10 +605,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>2.227815</v>
+        <v>1.869676</v>
       </c>
       <c r="C12">
-        <v>0.8000000000000007</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -616,10 +616,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>2.227815</v>
+        <v>1.582048</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -627,10 +627,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>2.227815</v>
+        <v>1.917614</v>
       </c>
       <c r="C14">
-        <v>1.799999999999999</v>
+        <v>3.21371</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -638,10 +638,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>2.227815</v>
+        <v>1.7738</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.7083699999999999</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -649,10 +649,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>2.227815</v>
+        <v>1.246482</v>
       </c>
       <c r="C16">
-        <v>3.200000000000001</v>
+        <v>10.67993</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -660,10 +660,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>2.227815</v>
+        <v>2.041090666666666</v>
       </c>
       <c r="C17">
-        <v>0.1999999999999993</v>
+        <v>20.68171</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -671,10 +671,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>2.227815</v>
+        <v>2.396994</v>
       </c>
       <c r="C18">
-        <v>18.6</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -682,10 +682,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>2.227815</v>
+        <v>1.845707</v>
       </c>
       <c r="C19">
-        <v>0.1999999999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -693,10 +693,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>2.227815</v>
+        <v>1.582048</v>
       </c>
       <c r="C20">
-        <v>9.800000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -704,10 +704,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>2.227815</v>
+        <v>1.414265</v>
       </c>
       <c r="C21">
-        <v>3.399999999999999</v>
+        <v>1.39796</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -715,10 +715,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>2.227815</v>
+        <v>1.318389</v>
       </c>
       <c r="C22">
-        <v>0.1999999999999957</v>
+        <v>1.05275</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -726,10 +726,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>2.227815</v>
+        <v>1.246482</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.25737</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -737,10 +737,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>2.227815</v>
+        <v>1.198544</v>
       </c>
       <c r="C24">
-        <v>7.400000000000006</v>
+        <v>0.03491</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -748,10 +748,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>2.227815</v>
+        <v>1.174575</v>
       </c>
       <c r="C25">
-        <v>0.1999999999999957</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -759,10 +759,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>2.227815</v>
+        <v>1.342358</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -770,10 +770,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>2.227815</v>
+        <v>1.318389</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -781,10 +781,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>2.227815</v>
+        <v>1.342358</v>
       </c>
       <c r="C28">
-        <v>60.2</v>
+        <v>0.47368</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -792,10 +792,10 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>2.227815</v>
+        <v>1.270451</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2.13196</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -803,10 +803,10 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>2.227815</v>
+        <v>1.078699</v>
       </c>
       <c r="C30">
-        <v>3.200000000000003</v>
+        <v>3.58021</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -814,10 +814,10 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>2.227815</v>
+        <v>1.078699</v>
       </c>
       <c r="C31">
-        <v>2.799999999999997</v>
+        <v>0.0492</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -825,10 +825,10 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>2.227815</v>
+        <v>1.174575</v>
       </c>
       <c r="C32">
-        <v>3.200000000000003</v>
+        <v>2.50025</v>
       </c>
     </row>
   </sheetData>
